--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/template.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D37EA2B-18A4-49B8-90F7-AE008B7517F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0257642A-2A04-420E-9C30-17A0223DCD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -214,12 +219,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -239,6 +238,12 @@
   </si>
   <si>
     <t>стр. X, 15, 93</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,11 +643,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -655,18 +660,18 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -698,31 +703,31 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -766,7 +771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -810,7 +815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -854,7 +859,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -898,7 +903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -942,7 +947,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -986,7 +991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1078,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1331,7 +1336,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1460,7 +1465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1503,7 +1508,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1675,7 +1680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1718,7 +1723,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1809,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1847,7 +1852,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1976,7 +1981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2019,7 +2024,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2062,7 +2067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2148,7 +2153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2191,7 +2196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2234,7 +2239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2320,7 +2325,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2363,7 +2368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2406,7 +2411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2492,7 +2497,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2535,7 +2540,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2621,7 +2626,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2664,7 +2669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2707,7 +2712,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2750,7 +2755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2836,7 +2841,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2879,7 +2884,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2922,14 +2927,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
@@ -2960,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4">
         <f>B52-B54</f>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/template.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0257642A-2A04-420E-9C30-17A0223DCD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B80207-79D5-4D44-8EE9-1E52F7919FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>Харьковская</t>
   </si>
   <si>
-    <t>Херссвская</t>
-  </si>
-  <si>
     <t>Черниговская</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>чс-ж</t>
+  </si>
+  <si>
+    <t>Херсонская</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92751CB6-2080-4F2A-93AB-D7595671A56D}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -673,58 +673,58 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2714,7 +2714,7 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="10"/>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="10"/>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="10"/>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="5"/>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
